--- a/Avancement.xlsx
+++ b/Avancement.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BLENDER INTEGRATION\Vid_Integration_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobau\Documents\EPSA\Vid_Integration_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62A29C8-B15B-4395-AC00-28C8415C69CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="672" windowWidth="10116" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="675" windowWidth="10110" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>RBE</t>
   </si>
@@ -97,14 +96,76 @@
   </si>
   <si>
     <t>TLR</t>
+  </si>
+  <si>
+    <t>Roue équipé</t>
+  </si>
+  <si>
+    <t>Tableau de bord</t>
+  </si>
+  <si>
+    <t>Rendu final</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Texture</t>
+  </si>
+  <si>
+    <t>Shade smooth</t>
+  </si>
+  <si>
+    <t>Fichiers .stl</t>
+  </si>
+  <si>
+    <t>Transmission secondaire</t>
+  </si>
+  <si>
+    <t>Sous-système</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Aéro</t>
+  </si>
+  <si>
+    <t>Frame&amp;Body</t>
+  </si>
+  <si>
+    <t>Elec</t>
+  </si>
+  <si>
+    <t>Motorisation</t>
+  </si>
+  <si>
+    <t>Décor</t>
+  </si>
+  <si>
+    <t>Respo</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>NGO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,8 +193,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,64 +477,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -478,7 +675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -486,44 +683,191 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <v>0.5</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>0.2</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>0.3</v>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+      <c r="K13">
+        <v>0.3</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>0.3</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I2:M17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Avancement.xlsx
+++ b/Avancement.xlsx
@@ -626,13 +626,13 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>

--- a/Avancement.xlsx
+++ b/Avancement.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="4200" yWindow="675" windowWidth="10110" windowHeight="6000"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Avancement" sheetId="1" r:id="rId1"/>
+    <sheet name="STL files" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>RBE</t>
   </si>
@@ -98,9 +99,6 @@
     <t>TLR</t>
   </si>
   <si>
-    <t>Roue équipé</t>
-  </si>
-  <si>
     <t>Tableau de bord</t>
   </si>
   <si>
@@ -150,6 +148,75 @@
   </si>
   <si>
     <t>NGO</t>
+  </si>
+  <si>
+    <t>Roue équipé avant</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>tout l'assemblage, sauf la visserie et les pièces trop petites</t>
+  </si>
+  <si>
+    <t>fond plat</t>
+  </si>
+  <si>
+    <t>Aile arrière</t>
+  </si>
+  <si>
+    <t>pompe et régulateur</t>
+  </si>
+  <si>
+    <t>Pare feu</t>
+  </si>
+  <si>
+    <t>siège</t>
+  </si>
+  <si>
+    <t>poigné d'embrayage</t>
+  </si>
+  <si>
+    <t>déjà fait ?</t>
+  </si>
+  <si>
+    <t>Elec :</t>
+  </si>
+  <si>
+    <t>crash sensor</t>
+  </si>
+  <si>
+    <t>Batterie avec support</t>
+  </si>
+  <si>
+    <t>boite avant et arrière</t>
+  </si>
+  <si>
+    <t>Master switch</t>
+  </si>
+  <si>
+    <t>interrupteur d'urgence</t>
+  </si>
+  <si>
+    <t>RaceCapture</t>
+  </si>
+  <si>
+    <t>Boute à fusible</t>
+  </si>
+  <si>
+    <t>Pièces à importer</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Avancement</t>
+  </si>
+  <si>
+    <t>Roue équipé arrière</t>
+  </si>
+  <si>
+    <t>Rendu test</t>
   </si>
 </sst>
 </file>
@@ -478,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +560,7 @@
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,28 +568,31 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -533,7 +603,7 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -548,10 +618,13 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -559,10 +632,10 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -577,10 +650,13 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -588,10 +664,10 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -608,8 +684,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -617,10 +696,10 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -637,8 +716,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -646,36 +728,63 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -683,7 +792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -691,11 +800,11 @@
         <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -703,10 +812,7 @@
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I10">
         <v>0.5</v>
@@ -723,8 +829,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -732,19 +841,16 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -752,8 +858,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -761,19 +870,16 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I12">
         <v>0.2</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -781,63 +887,66 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I13">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="K13">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>3</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14">
+        <v>0.7</v>
+      </c>
+      <c r="J14">
+        <v>0.7</v>
+      </c>
+      <c r="K14">
+        <v>0.7</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I14">
-        <v>0.3</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="I17">
         <v>0</v>
       </c>
@@ -853,9 +962,181 @@
       <c r="M17">
         <v>0</v>
       </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:M17">
+  <conditionalFormatting sqref="I2:L17 N2:N17 M2:M7 M10:M14 M17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="76.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:B17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Avancement.xlsx
+++ b/Avancement.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobau\Documents\EPSA\Vid_Integration_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BLENDER INTEGRATION\Vid_Integration_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA56B356-52EA-487D-87D5-34ADE0FD16E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="675" windowWidth="10110" windowHeight="6000"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avancement" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>RBE</t>
   </si>
@@ -217,12 +218,15 @@
   </si>
   <si>
     <t>Rendu test</t>
+  </si>
+  <si>
+    <t>dans le tableau de bord</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,23 +548,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="7" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -624,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -656,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -688,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -720,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -752,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -784,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -792,7 +796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -804,7 +808,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -833,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -862,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -891,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -917,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>3</v>
       </c>
@@ -940,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G17" s="2" t="s">
         <v>37</v>
       </c>
@@ -985,20 +989,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" customWidth="1"/>
+    <col min="1" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1020,119 +1024,122 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>57</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>58</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Avancement.xlsx
+++ b/Avancement.xlsx
@@ -548,7 +548,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,13 +844,13 @@
         <v>34</v>
       </c>
       <c r="I11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>35</v>
       </c>
       <c r="I12">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="K12">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>36</v>
       </c>
       <c r="I13">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0.9</v>
